--- a/project_steampowered_com/gta.xlsx
+++ b/project_steampowered_com/gta.xlsx
@@ -1504,18 +1504,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kargo - A neo-noir adventure</t>
+          <t>Rock 'N' Roll Defense</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TBA; probably 2022</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>10 Aug, 2016</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Rp 8 499</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://store.steampowered.com/app/1546890/Kargo__A_neonoir_adventure/?snr=1_7_7_151_150_1</t>
+          <t>https://store.steampowered.com/app/438480/Rock_N_Roll_Defense/?snr=1_7_7_151_150_1</t>
         </is>
       </c>
     </row>
